--- a/public/output/personel-29/پرسنل29_اردیبهشت_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_اردیبهشت_1400.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>ردیف</t>
   </si>
@@ -41,9 +41,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>مجموع ماه</t>
-  </si>
-  <si>
     <t>روز</t>
   </si>
   <si>
@@ -74,28 +71,28 @@
     <t>4</t>
   </si>
   <si>
-    <t>9:18:45</t>
-  </si>
-  <si>
-    <t>9:26:54</t>
+    <t>09:18:45</t>
+  </si>
+  <si>
+    <t>09:26:54</t>
   </si>
   <si>
     <t>1400/2/1</t>
   </si>
   <si>
-    <t>0:8:9</t>
+    <t>00:08:09</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9:48:2</t>
+    <t>09:48:02</t>
   </si>
   <si>
     <t>14:47:43</t>
   </si>
   <si>
-    <t>4:59:41</t>
+    <t>04:59:41</t>
   </si>
   <si>
     <t>15:33:41</t>
@@ -104,7 +101,7 @@
     <t>17:11:54</t>
   </si>
   <si>
-    <t>1:38:13</t>
+    <t>01:38:13</t>
   </si>
   <si>
     <t>17:52:37</t>
@@ -113,13 +110,13 @@
     <t>19:13:12</t>
   </si>
   <si>
-    <t>1:20:35</t>
-  </si>
-  <si>
-    <t>8:6:38</t>
-  </si>
-  <si>
-    <t>9:54:27</t>
+    <t>01:20:35</t>
+  </si>
+  <si>
+    <t>08:06:38</t>
+  </si>
+  <si>
+    <t>09:54:27</t>
   </si>
   <si>
     <t>چهارشنبه</t>
@@ -128,7 +125,7 @@
     <t>حضور</t>
   </si>
   <si>
-    <t>0:54:27</t>
+    <t>00:36:38</t>
   </si>
   <si>
     <t>پنج شنبه</t>
@@ -137,88 +134,88 @@
     <t>1400/2/2</t>
   </si>
   <si>
-    <t>0:0:0</t>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>تعطیل</t>
+  </si>
+  <si>
+    <t>جمعه</t>
+  </si>
+  <si>
+    <t>1400/2/3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>09:38:15</t>
+  </si>
+  <si>
+    <t>09:45:38</t>
+  </si>
+  <si>
+    <t>1400/2/4</t>
+  </si>
+  <si>
+    <t>00:07:23</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>09:53:28</t>
+  </si>
+  <si>
+    <t>13:47:57</t>
+  </si>
+  <si>
+    <t>03:54:29</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>14:16:41</t>
+  </si>
+  <si>
+    <t>15:16:29</t>
+  </si>
+  <si>
+    <t>00:59:48</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15:35:53</t>
+  </si>
+  <si>
+    <t>17:51:22</t>
+  </si>
+  <si>
+    <t>02:15:29</t>
+  </si>
+  <si>
+    <t>07:17:09</t>
+  </si>
+  <si>
+    <t>08:13:07</t>
+  </si>
+  <si>
+    <t>شنبه</t>
   </si>
   <si>
     <t>غیبت (ساعتی)</t>
   </si>
   <si>
-    <t>7:30:0</t>
-  </si>
-  <si>
-    <t>جمعه</t>
-  </si>
-  <si>
-    <t>1400/2/3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9:38:15</t>
-  </si>
-  <si>
-    <t>9:45:38</t>
-  </si>
-  <si>
-    <t>1400/2/4</t>
-  </si>
-  <si>
-    <t>0:7:23</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9:53:28</t>
-  </si>
-  <si>
-    <t>13:47:57</t>
-  </si>
-  <si>
-    <t>3:54:29</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>14:16:41</t>
-  </si>
-  <si>
-    <t>15:16:29</t>
-  </si>
-  <si>
-    <t>0:59:48</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>15:35:53</t>
-  </si>
-  <si>
-    <t>17:51:22</t>
-  </si>
-  <si>
-    <t>2:15:29</t>
-  </si>
-  <si>
-    <t>7:17:9</t>
-  </si>
-  <si>
-    <t>8:13:7</t>
-  </si>
-  <si>
-    <t>شنبه</t>
-  </si>
-  <si>
-    <t>0:12:51</t>
+    <t>00:12:51</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>9:54:21</t>
+    <t>09:54:21</t>
   </si>
   <si>
     <t>11:27:30</t>
@@ -227,7 +224,7 @@
     <t>1400/2/5</t>
   </si>
   <si>
-    <t>1:33:9</t>
+    <t>01:33:09</t>
   </si>
   <si>
     <t>10</t>
@@ -239,7 +236,7 @@
     <t>12:14:51</t>
   </si>
   <si>
-    <t>0:29:23</t>
+    <t>00:29:23</t>
   </si>
   <si>
     <t>11</t>
@@ -251,43 +248,43 @@
     <t>14:45:32</t>
   </si>
   <si>
-    <t>1:56:52</t>
+    <t>01:56:52</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>15:13:5</t>
+    <t>15:13:05</t>
   </si>
   <si>
     <t>18:12:39</t>
   </si>
   <si>
-    <t>2:59:34</t>
+    <t>02:59:34</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>18:41:2</t>
-  </si>
-  <si>
-    <t>18:44:4</t>
-  </si>
-  <si>
-    <t>0:3:2</t>
-  </si>
-  <si>
-    <t>7:2:0</t>
-  </si>
-  <si>
-    <t>8:49:43</t>
+    <t>18:41:02</t>
+  </si>
+  <si>
+    <t>18:44:04</t>
+  </si>
+  <si>
+    <t>00:03:02</t>
+  </si>
+  <si>
+    <t>07:02:00</t>
+  </si>
+  <si>
+    <t>08:49:43</t>
   </si>
   <si>
     <t>یکشنبه</t>
   </si>
   <si>
-    <t>0:28:0</t>
+    <t>00:28:00</t>
   </si>
   <si>
     <t>دوشنبه</t>
@@ -296,31 +293,34 @@
     <t>1400/2/6</t>
   </si>
   <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>9:0:44</t>
-  </si>
-  <si>
-    <t>9:40:2</t>
+    <t>09:00:44</t>
+  </si>
+  <si>
+    <t>09:40:02</t>
   </si>
   <si>
     <t>1400/2/7</t>
   </si>
   <si>
-    <t>0:39:18</t>
+    <t>00:39:18</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>9:51:32</t>
+    <t>09:51:32</t>
   </si>
   <si>
     <t>13:53:42</t>
   </si>
   <si>
-    <t>4:2:10</t>
+    <t>04:02:10</t>
   </si>
   <si>
     <t>16</t>
@@ -332,13 +332,13 @@
     <t>17:59:37</t>
   </si>
   <si>
-    <t>3:38:10</t>
-  </si>
-  <si>
-    <t>8:19:38</t>
-  </si>
-  <si>
-    <t>8:58:53</t>
+    <t>03:38:10</t>
+  </si>
+  <si>
+    <t>08:19:38</t>
+  </si>
+  <si>
+    <t>08:58:53</t>
   </si>
   <si>
     <t>سه شنبه</t>
@@ -347,28 +347,28 @@
     <t>17</t>
   </si>
   <si>
-    <t>9:23:46</t>
-  </si>
-  <si>
-    <t>10:59:8</t>
+    <t>09:23:46</t>
+  </si>
+  <si>
+    <t>10:59:08</t>
   </si>
   <si>
     <t>1400/2/8</t>
   </si>
   <si>
-    <t>1:35:22</t>
+    <t>01:35:22</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>11:0:9</t>
+    <t>11:00:09</t>
   </si>
   <si>
     <t>13:27:35</t>
   </si>
   <si>
-    <t>2:27:26</t>
+    <t>02:27:26</t>
   </si>
   <si>
     <t>19</t>
@@ -380,7 +380,7 @@
     <t>17:19:12</t>
   </si>
   <si>
-    <t>3:4:22</t>
+    <t>03:04:22</t>
   </si>
   <si>
     <t>20</t>
@@ -389,16 +389,16 @@
     <t>17:37:54</t>
   </si>
   <si>
-    <t>18:4:46</t>
-  </si>
-  <si>
-    <t>0:26:52</t>
-  </si>
-  <si>
-    <t>7:34:2</t>
-  </si>
-  <si>
-    <t>8:41:0</t>
+    <t>18:04:46</t>
+  </si>
+  <si>
+    <t>00:26:52</t>
+  </si>
+  <si>
+    <t>07:34:02</t>
+  </si>
+  <si>
+    <t>08:41:00</t>
   </si>
   <si>
     <t>1400/2/9</t>
@@ -410,7 +410,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>9:1:34</t>
+    <t>09:01:34</t>
   </si>
   <si>
     <t>11:32:53</t>
@@ -419,7 +419,7 @@
     <t>1400/2/11</t>
   </si>
   <si>
-    <t>2:31:19</t>
+    <t>02:31:19</t>
   </si>
   <si>
     <t>22</t>
@@ -431,19 +431,19 @@
     <t>14:38:22</t>
   </si>
   <si>
-    <t>2:44:36</t>
+    <t>02:44:36</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>15:2:54</t>
-  </si>
-  <si>
-    <t>17:25:6</t>
-  </si>
-  <si>
-    <t>2:22:12</t>
+    <t>15:02:54</t>
+  </si>
+  <si>
+    <t>17:25:06</t>
+  </si>
+  <si>
+    <t>02:22:12</t>
   </si>
   <si>
     <t>24</t>
@@ -455,16 +455,16 @@
     <t>18:34:14</t>
   </si>
   <si>
-    <t>0:8:53</t>
-  </si>
-  <si>
-    <t>7:47:0</t>
-  </si>
-  <si>
-    <t>9:32:40</t>
-  </si>
-  <si>
-    <t>0:32:40</t>
+    <t>00:08:53</t>
+  </si>
+  <si>
+    <t>07:47:00</t>
+  </si>
+  <si>
+    <t>09:32:40</t>
+  </si>
+  <si>
+    <t>00:17:00</t>
   </si>
   <si>
     <t>25</t>
@@ -473,13 +473,13 @@
     <t>10:25:17</t>
   </si>
   <si>
-    <t>13:26:0</t>
+    <t>13:26:00</t>
   </si>
   <si>
     <t>1400/2/12</t>
   </si>
   <si>
-    <t>3:0:43</t>
+    <t>03:00:43</t>
   </si>
   <si>
     <t>26</t>
@@ -491,43 +491,43 @@
     <t>16:25:23</t>
   </si>
   <si>
-    <t>2:32:32</t>
-  </si>
-  <si>
-    <t>5:33:15</t>
-  </si>
-  <si>
-    <t>6:0:6</t>
-  </si>
-  <si>
-    <t>1:56:45</t>
+    <t>02:32:32</t>
+  </si>
+  <si>
+    <t>05:33:15</t>
+  </si>
+  <si>
+    <t>06:00:06</t>
+  </si>
+  <si>
+    <t>01:56:45</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>9:40:20</t>
-  </si>
-  <si>
-    <t>13:9:0</t>
+    <t>09:40:20</t>
+  </si>
+  <si>
+    <t>13:09:00</t>
   </si>
   <si>
     <t>1400/2/13</t>
   </si>
   <si>
-    <t>3:28:40</t>
+    <t>03:28:40</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>14:7:59</t>
+    <t>14:07:59</t>
   </si>
   <si>
     <t>17:42:55</t>
   </si>
   <si>
-    <t>3:34:56</t>
+    <t>03:34:56</t>
   </si>
   <si>
     <t>29</t>
@@ -539,16 +539,16 @@
     <t>18:41:21</t>
   </si>
   <si>
-    <t>0:20:5</t>
-  </si>
-  <si>
-    <t>7:23:41</t>
-  </si>
-  <si>
-    <t>9:1:1</t>
-  </si>
-  <si>
-    <t>0:6:19</t>
+    <t>00:20:05</t>
+  </si>
+  <si>
+    <t>07:23:41</t>
+  </si>
+  <si>
+    <t>09:01:01</t>
+  </si>
+  <si>
+    <t>00:06:19</t>
   </si>
   <si>
     <t>1400/2/14</t>
@@ -566,7 +566,7 @@
     <t>1400/2/15</t>
   </si>
   <si>
-    <t>1:34:7</t>
+    <t>01:34:07</t>
   </si>
   <si>
     <t>31</t>
@@ -578,7 +578,7 @@
     <t>13:11:17</t>
   </si>
   <si>
-    <t>1:13:24</t>
+    <t>01:13:24</t>
   </si>
   <si>
     <t>32</t>
@@ -587,10 +587,10 @@
     <t>13:45:45</t>
   </si>
   <si>
-    <t>15:3:34</t>
-  </si>
-  <si>
-    <t>1:17:49</t>
+    <t>15:03:34</t>
+  </si>
+  <si>
+    <t>01:17:49</t>
   </si>
   <si>
     <t>33</t>
@@ -602,7 +602,7 @@
     <t>18:20:43</t>
   </si>
   <si>
-    <t>2:52:18</t>
+    <t>02:52:18</t>
   </si>
   <si>
     <t>34</t>
@@ -611,19 +611,19 @@
     <t>18:52:22</t>
   </si>
   <si>
-    <t>18:56:1</t>
-  </si>
-  <si>
-    <t>0:3:39</t>
-  </si>
-  <si>
-    <t>7:1:17</t>
-  </si>
-  <si>
-    <t>8:33:30</t>
-  </si>
-  <si>
-    <t>0:28:43</t>
+    <t>18:56:01</t>
+  </si>
+  <si>
+    <t>00:03:39</t>
+  </si>
+  <si>
+    <t>07:01:17</t>
+  </si>
+  <si>
+    <t>08:33:30</t>
+  </si>
+  <si>
+    <t>00:28:43</t>
   </si>
   <si>
     <t>1400/2/16</t>
@@ -635,7 +635,7 @@
     <t>35</t>
   </si>
   <si>
-    <t>9:4:32</t>
+    <t>09:04:32</t>
   </si>
   <si>
     <t>13:48:24</t>
@@ -644,7 +644,7 @@
     <t>1400/2/18</t>
   </si>
   <si>
-    <t>4:43:52</t>
+    <t>04:43:52</t>
   </si>
   <si>
     <t>36</t>
@@ -656,19 +656,19 @@
     <t>15:40:30</t>
   </si>
   <si>
-    <t>1:14:9</t>
+    <t>01:14:09</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>16:9:31</t>
+    <t>16:09:31</t>
   </si>
   <si>
     <t>17:13:40</t>
   </si>
   <si>
-    <t>1:4:9</t>
+    <t>01:04:09</t>
   </si>
   <si>
     <t>38</t>
@@ -680,22 +680,22 @@
     <t>17:23:28</t>
   </si>
   <si>
-    <t>0:5:39</t>
-  </si>
-  <si>
-    <t>7:7:49</t>
-  </si>
-  <si>
-    <t>8:18:56</t>
-  </si>
-  <si>
-    <t>0:22:11</t>
+    <t>00:05:39</t>
+  </si>
+  <si>
+    <t>07:07:49</t>
+  </si>
+  <si>
+    <t>08:18:56</t>
+  </si>
+  <si>
+    <t>00:22:11</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>8:56:50</t>
+    <t>08:56:50</t>
   </si>
   <si>
     <t>10:29:36</t>
@@ -704,7 +704,7 @@
     <t>1400/2/19</t>
   </si>
   <si>
-    <t>1:32:46</t>
+    <t>01:32:46</t>
   </si>
   <si>
     <t>40</t>
@@ -716,7 +716,7 @@
     <t>11:32:27</t>
   </si>
   <si>
-    <t>0:48:2</t>
+    <t>00:48:02</t>
   </si>
   <si>
     <t>41</t>
@@ -728,7 +728,7 @@
     <t>14:27:54</t>
   </si>
   <si>
-    <t>2:52:39</t>
+    <t>02:52:39</t>
   </si>
   <si>
     <t>42</t>
@@ -737,25 +737,25 @@
     <t>15:14:30</t>
   </si>
   <si>
-    <t>18:2:15</t>
-  </si>
-  <si>
-    <t>2:47:45</t>
-  </si>
-  <si>
-    <t>8:1:12</t>
-  </si>
-  <si>
-    <t>9:5:25</t>
-  </si>
-  <si>
-    <t>0:5:25</t>
+    <t>18:02:15</t>
+  </si>
+  <si>
+    <t>02:47:45</t>
+  </si>
+  <si>
+    <t>08:01:12</t>
+  </si>
+  <si>
+    <t>09:05:25</t>
+  </si>
+  <si>
+    <t>00:31:12</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>10:35:2</t>
+    <t>10:35:02</t>
   </si>
   <si>
     <t>12:50:51</t>
@@ -764,7 +764,7 @@
     <t>1400/2/20</t>
   </si>
   <si>
-    <t>2:15:49</t>
+    <t>02:15:49</t>
   </si>
   <si>
     <t>44</t>
@@ -773,22 +773,22 @@
     <t>12:57:30</t>
   </si>
   <si>
-    <t>13:1:18</t>
-  </si>
-  <si>
-    <t>0:3:48</t>
+    <t>13:01:18</t>
+  </si>
+  <si>
+    <t>00:03:48</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>13:49:6</t>
-  </si>
-  <si>
-    <t>15:46:4</t>
-  </si>
-  <si>
-    <t>1:56:58</t>
+    <t>13:49:06</t>
+  </si>
+  <si>
+    <t>15:46:04</t>
+  </si>
+  <si>
+    <t>01:56:58</t>
   </si>
   <si>
     <t>46</t>
@@ -800,7 +800,7 @@
     <t>16:29:55</t>
   </si>
   <si>
-    <t>0:15:39</t>
+    <t>00:15:39</t>
   </si>
   <si>
     <t>47</t>
@@ -812,43 +812,43 @@
     <t>19:45:59</t>
   </si>
   <si>
-    <t>1:51:23</t>
-  </si>
-  <si>
-    <t>6:23:37</t>
-  </si>
-  <si>
-    <t>9:10:57</t>
-  </si>
-  <si>
-    <t>1:6:23</t>
+    <t>01:51:23</t>
+  </si>
+  <si>
+    <t>06:23:37</t>
+  </si>
+  <si>
+    <t>09:10:57</t>
+  </si>
+  <si>
+    <t>01:06:23</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>8:56:59</t>
-  </si>
-  <si>
-    <t>9:34:5</t>
+    <t>08:56:59</t>
+  </si>
+  <si>
+    <t>09:34:05</t>
   </si>
   <si>
     <t>1400/2/21</t>
   </si>
   <si>
-    <t>0:37:6</t>
+    <t>00:37:06</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>9:43:57</t>
+    <t>09:43:57</t>
   </si>
   <si>
     <t>12:58:34</t>
   </si>
   <si>
-    <t>3:14:37</t>
+    <t>03:14:37</t>
   </si>
   <si>
     <t>50</t>
@@ -857,19 +857,19 @@
     <t>13:45:54</t>
   </si>
   <si>
-    <t>16:29:2</t>
-  </si>
-  <si>
-    <t>2:43:8</t>
-  </si>
-  <si>
-    <t>6:34:51</t>
-  </si>
-  <si>
-    <t>7:32:3</t>
-  </si>
-  <si>
-    <t>0:55:9</t>
+    <t>16:29:02</t>
+  </si>
+  <si>
+    <t>02:43:08</t>
+  </si>
+  <si>
+    <t>06:34:51</t>
+  </si>
+  <si>
+    <t>07:32:03</t>
+  </si>
+  <si>
+    <t>00:55:09</t>
   </si>
   <si>
     <t>1400/2/22</t>
@@ -884,16 +884,16 @@
     <t>51</t>
   </si>
   <si>
-    <t>9:9:8</t>
-  </si>
-  <si>
-    <t>14:1:16</t>
+    <t>09:09:08</t>
+  </si>
+  <si>
+    <t>14:01:16</t>
   </si>
   <si>
     <t>1400/2/25</t>
   </si>
   <si>
-    <t>4:52:8</t>
+    <t>04:52:08</t>
   </si>
   <si>
     <t>52</t>
@@ -905,7 +905,7 @@
     <t>16:57:38</t>
   </si>
   <si>
-    <t>2:30:0</t>
+    <t>02:30:00</t>
   </si>
   <si>
     <t>53</t>
@@ -917,22 +917,22 @@
     <t>18:11:17</t>
   </si>
   <si>
-    <t>0:37:55</t>
-  </si>
-  <si>
-    <t>8:0:3</t>
-  </si>
-  <si>
-    <t>9:2:9</t>
-  </si>
-  <si>
-    <t>0:2:9</t>
+    <t>00:37:55</t>
+  </si>
+  <si>
+    <t>08:00:03</t>
+  </si>
+  <si>
+    <t>09:02:09</t>
+  </si>
+  <si>
+    <t>00:30:03</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
-    <t>9:26:26</t>
+    <t>09:26:26</t>
   </si>
   <si>
     <t>13:37:25</t>
@@ -941,7 +941,7 @@
     <t>1400/2/26</t>
   </si>
   <si>
-    <t>4:10:59</t>
+    <t>04:10:59</t>
   </si>
   <si>
     <t>55</t>
@@ -953,7 +953,7 @@
     <t>13:44:11</t>
   </si>
   <si>
-    <t>0:6:13</t>
+    <t>00:06:13</t>
   </si>
   <si>
     <t>56</t>
@@ -962,31 +962,31 @@
     <t>14:12:50</t>
   </si>
   <si>
-    <t>16:7:58</t>
-  </si>
-  <si>
-    <t>1:55:8</t>
+    <t>16:07:58</t>
+  </si>
+  <si>
+    <t>01:55:08</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>17:7:17</t>
+    <t>17:07:17</t>
   </si>
   <si>
     <t>18:28:52</t>
   </si>
   <si>
-    <t>1:21:35</t>
-  </si>
-  <si>
-    <t>7:33:55</t>
-  </si>
-  <si>
-    <t>9:2:26</t>
-  </si>
-  <si>
-    <t>0:2:26</t>
+    <t>01:21:35</t>
+  </si>
+  <si>
+    <t>07:33:55</t>
+  </si>
+  <si>
+    <t>09:02:26</t>
+  </si>
+  <si>
+    <t>00:03:55</t>
   </si>
   <si>
     <t>58</t>
@@ -1001,7 +1001,7 @@
     <t>1400/2/27</t>
   </si>
   <si>
-    <t>2:25:13</t>
+    <t>02:25:13</t>
   </si>
   <si>
     <t>59</t>
@@ -1013,7 +1013,7 @@
     <t>13:54:14</t>
   </si>
   <si>
-    <t>0:54:58</t>
+    <t>00:54:58</t>
   </si>
   <si>
     <t>60</t>
@@ -1025,7 +1025,7 @@
     <t>16:31:23</t>
   </si>
   <si>
-    <t>2:3:13</t>
+    <t>02:03:13</t>
   </si>
   <si>
     <t>61</t>
@@ -1037,58 +1037,55 @@
     <t>19:25:19</t>
   </si>
   <si>
-    <t>2:11:53</t>
-  </si>
-  <si>
-    <t>7:35:17</t>
-  </si>
-  <si>
-    <t>9:10:53</t>
+    <t>02:11:53</t>
+  </si>
+  <si>
+    <t>07:35:17</t>
+  </si>
+  <si>
+    <t>09:10:53</t>
   </si>
   <si>
     <t>غیبت (تاخیر در ورود)</t>
   </si>
   <si>
-    <t>1:44:26</t>
+    <t>00:14:26</t>
   </si>
   <si>
     <t>62</t>
   </si>
   <si>
-    <t>8:35:59</t>
-  </si>
-  <si>
-    <t>9:12:37</t>
+    <t>08:35:59</t>
+  </si>
+  <si>
+    <t>09:12:37</t>
   </si>
   <si>
     <t>1400/2/28</t>
   </si>
   <si>
-    <t>0:36:38</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
-    <t>9:51:28</t>
-  </si>
-  <si>
-    <t>13:1:55</t>
-  </si>
-  <si>
-    <t>3:10:27</t>
+    <t>09:51:28</t>
+  </si>
+  <si>
+    <t>13:01:55</t>
+  </si>
+  <si>
+    <t>03:10:27</t>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>13:3:21</t>
+    <t>13:03:21</t>
   </si>
   <si>
     <t>13:28:19</t>
   </si>
   <si>
-    <t>0:24:58</t>
+    <t>00:24:58</t>
   </si>
   <si>
     <t>65</t>
@@ -1100,55 +1097,55 @@
     <t>14:45:21</t>
   </si>
   <si>
-    <t>0:50:4</t>
+    <t>00:50:04</t>
   </si>
   <si>
     <t>66</t>
   </si>
   <si>
-    <t>15:5:2</t>
-  </si>
-  <si>
-    <t>17:41:7</t>
-  </si>
-  <si>
-    <t>2:36:5</t>
-  </si>
-  <si>
-    <t>7:38:12</t>
-  </si>
-  <si>
-    <t>9:5:8</t>
-  </si>
-  <si>
-    <t>0:5:8</t>
+    <t>15:05:02</t>
+  </si>
+  <si>
+    <t>17:41:07</t>
+  </si>
+  <si>
+    <t>02:36:05</t>
+  </si>
+  <si>
+    <t>07:38:12</t>
+  </si>
+  <si>
+    <t>09:05:08</t>
+  </si>
+  <si>
+    <t>00:08:12</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>9:2:43</t>
-  </si>
-  <si>
-    <t>9:21:22</t>
+    <t>09:02:43</t>
+  </si>
+  <si>
+    <t>09:21:22</t>
   </si>
   <si>
     <t>1400/2/29</t>
   </si>
   <si>
-    <t>0:18:39</t>
+    <t>00:18:39</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>9:46:49</t>
-  </si>
-  <si>
-    <t>11:38:2</t>
-  </si>
-  <si>
-    <t>1:51:13</t>
+    <t>09:46:49</t>
+  </si>
+  <si>
+    <t>11:38:02</t>
+  </si>
+  <si>
+    <t>01:51:13</t>
   </si>
   <si>
     <t>69</t>
@@ -1160,19 +1157,19 @@
     <t>12:36:42</t>
   </si>
   <si>
-    <t>0:57:18</t>
+    <t>00:57:18</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>13:1:41</t>
+    <t>13:01:41</t>
   </si>
   <si>
     <t>13:31:38</t>
   </si>
   <si>
-    <t>0:29:57</t>
+    <t>00:29:57</t>
   </si>
   <si>
     <t>71</t>
@@ -1184,19 +1181,19 @@
     <t>13:36:56</t>
   </si>
   <si>
-    <t>0:0:13</t>
+    <t>00:00:13</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>14:2:9</t>
+    <t>14:02:09</t>
   </si>
   <si>
     <t>15:49:47</t>
   </si>
   <si>
-    <t>1:47:38</t>
+    <t>01:47:38</t>
   </si>
   <si>
     <t>73</t>
@@ -1205,19 +1202,19 @@
     <t>15:50:34</t>
   </si>
   <si>
-    <t>18:8:20</t>
-  </si>
-  <si>
-    <t>2:17:46</t>
-  </si>
-  <si>
-    <t>7:42:44</t>
-  </si>
-  <si>
-    <t>9:5:37</t>
-  </si>
-  <si>
-    <t>0:5:37</t>
+    <t>18:08:20</t>
+  </si>
+  <si>
+    <t>02:17:46</t>
+  </si>
+  <si>
+    <t>07:42:44</t>
+  </si>
+  <si>
+    <t>09:05:37</t>
+  </si>
+  <si>
+    <t>00:12:44</t>
   </si>
   <si>
     <t>1400/2/30</t>
@@ -1226,7 +1223,19 @@
     <t>1400/2/31</t>
   </si>
   <si>
+    <t>مجموع</t>
+  </si>
+  <si>
     <t>132:42:20</t>
+  </si>
+  <si>
+    <t>157:18:01</t>
+  </si>
+  <si>
+    <t>02:19:44</t>
+  </si>
+  <si>
+    <t>28:06:21</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1245,7 @@
   <numFmts count="1">
     <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1264,6 +1273,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFAA0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -1297,12 +1312,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="3" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="4" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="5" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="3" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
@@ -1311,13 +1327,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,347 +1361,341 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1693,22 +1703,22 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1716,22 +1726,22 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1745,22 +1755,22 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1768,22 +1778,22 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1791,22 +1801,22 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1814,22 +1824,22 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1843,22 +1853,22 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1866,22 +1876,22 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1889,22 +1899,22 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1912,22 +1922,22 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1941,22 +1951,22 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1964,22 +1974,22 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>154</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1993,22 +2003,22 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2016,22 +2026,22 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2039,22 +2049,22 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2068,22 +2078,22 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2091,22 +2101,22 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="B32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2114,22 +2124,22 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2137,22 +2147,22 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2160,22 +2170,22 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2189,22 +2199,22 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -2212,22 +2222,22 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2235,22 +2245,22 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2258,22 +2268,22 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -2287,22 +2297,22 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>229</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -2310,22 +2320,22 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="B41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="6" t="s">
         <v>229</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -2333,22 +2343,22 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="B42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="6" t="s">
         <v>229</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -2356,22 +2366,22 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="B43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="6" t="s">
         <v>229</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -2385,22 +2395,22 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -2408,22 +2418,22 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2431,22 +2441,22 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="B46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -2454,22 +2464,22 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="B47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -2477,22 +2487,22 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="B48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -2506,22 +2516,22 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="6" t="s">
         <v>273</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -2529,22 +2539,22 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="B50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="6" t="s">
         <v>273</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -2552,22 +2562,22 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="B51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="6" t="s">
         <v>273</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -2581,22 +2591,22 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -2604,22 +2614,22 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -2627,22 +2637,22 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>292</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -2656,22 +2666,22 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="6" t="s">
         <v>308</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -2679,22 +2689,22 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="6" t="s">
         <v>308</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -2702,22 +2712,22 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="B57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="6" t="s">
         <v>308</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -2725,22 +2735,22 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="B58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="6" t="s">
         <v>308</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -2754,22 +2764,22 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="7" t="s">
         <v>328</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -2777,22 +2787,22 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="B60" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="7" t="s">
         <v>328</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -2800,22 +2810,22 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="B61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="7" t="s">
         <v>328</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -2823,22 +2833,22 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="B62" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="7" t="s">
         <v>328</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -2852,291 +2862,305 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D67" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="C68" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="C70" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="D74" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="G74" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>400</v>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3170,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -3154,148 +3178,142 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3312,12 +3330,12 @@
         <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>113</v>
@@ -3329,52 +3347,46 @@
         <v>128</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>134</v>
@@ -3386,7 +3398,7 @@
         <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>150</v>
@@ -3394,7 +3406,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>154</v>
@@ -3406,7 +3418,7 @@
         <v>161</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>162</v>
@@ -3414,7 +3426,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>166</v>
@@ -3426,7 +3438,7 @@
         <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>178</v>
@@ -3440,21 +3452,21 @@
         <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>183</v>
@@ -3466,55 +3478,49 @@
         <v>202</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>209</v>
@@ -3526,7 +3532,7 @@
         <v>224</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>225</v>
@@ -3534,7 +3540,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>229</v>
@@ -3546,7 +3552,7 @@
         <v>244</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>245</v>
@@ -3554,7 +3560,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>249</v>
@@ -3566,7 +3572,7 @@
         <v>268</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>269</v>
@@ -3586,7 +3592,7 @@
         <v>284</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>285</v>
@@ -3594,67 +3600,61 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>292</v>
@@ -3666,7 +3666,7 @@
         <v>303</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>304</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>308</v>
@@ -3686,7 +3686,7 @@
         <v>323</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>324</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>328</v>
@@ -3720,76 +3720,93 @@
         <v>349</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>43</v>
+      <c r="C34" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/public/output/personel-29/پرسنل29_اردیبهشت_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_اردیبهشت_1400.xlsx
@@ -1327,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -3149,17 +3149,17 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="3" t="s">
+    <row r="76" spans="1:9">
+      <c r="A76" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>405</v>
       </c>
     </row>

--- a/public/output/personel-29/پرسنل29_اردیبهشت_1400.xlsx
+++ b/public/output/personel-29/پرسنل29_اردیبهشت_1400.xlsx
@@ -1232,10 +1232,10 @@
     <t>157:18:01</t>
   </si>
   <si>
-    <t>02:19:44</t>
-  </si>
-  <si>
-    <t>28:06:21</t>
+    <t>09:55:01</t>
+  </si>
+  <si>
+    <t>20:36:21</t>
   </si>
 </sst>
 </file>
